--- a/Test02-tudanhgia.xlsx
+++ b/Test02-tudanhgia.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Min\ChuyenDeWeb1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChuyenDeWeb1_Flight\CDW1_Flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>STT</t>
   </si>
@@ -115,10 +115,7 @@
     <t>- Thống kê sân bay có lưu lượng máy bay đến-đi nhiều nhất</t>
   </si>
   <si>
-    <t>SV đạt</t>
-  </si>
-  <si>
-    <t>SV Giải thích thêm</t>
+    <t>Thiện Minh</t>
   </si>
 </sst>
 </file>
@@ -172,14 +169,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -188,7 +183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -213,9 +208,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -231,11 +223,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,29 +510,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="39.8984375" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="12" customWidth="1"/>
     <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="17.796875" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.05" customHeight="1">
+    <row r="1" spans="1:8" ht="31.05" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -547,21 +554,21 @@
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30.6" customHeight="1">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" ht="30.6" customHeight="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -571,14 +578,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30.6" customHeight="1">
+    <row r="4" spans="1:8" ht="30.6" customHeight="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -588,14 +595,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30.6" customHeight="1">
+    <row r="5" spans="1:8" ht="30.6" customHeight="1">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -605,14 +612,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30.6" customHeight="1">
+    <row r="6" spans="1:8" ht="30.6" customHeight="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -622,14 +629,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="46.8">
+    <row r="7" spans="1:8" ht="46.8">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -639,48 +646,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="25.8" customHeight="1">
+    <row r="8" spans="1:8" ht="25.8" customHeight="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="37.200000000000003" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="37.200000000000003" customHeight="1">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="37.200000000000003" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="51" customHeight="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -690,48 +697,48 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="37.200000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="37.200000000000003" customHeight="1">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>5</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="37.200000000000003" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="11">
-        <v>5</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="10">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.4" customHeight="1">
+    <row r="13" spans="1:8" ht="32.4" customHeight="1">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>5</v>
       </c>
       <c r="D13" s="3"/>
@@ -739,14 +746,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="32.4" customHeight="1">
+    <row r="14" spans="1:8" ht="32.4" customHeight="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>5</v>
       </c>
       <c r="D14" s="7"/>
@@ -754,29 +761,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="32.4" customHeight="1">
+    <row r="15" spans="1:8" ht="32.4" customHeight="1">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="11">
-        <v>5</v>
-      </c>
-      <c r="D15" s="10"/>
+      <c r="C15" s="10">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="32.4" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="32.4" customHeight="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>5</v>
       </c>
       <c r="D16" s="7"/>
@@ -791,30 +798,30 @@
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="11">
-        <v>5</v>
-      </c>
-      <c r="D17" s="10"/>
+      <c r="C17" s="10">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="4">
         <f>SUM(C3:C17)</f>
         <v>100</v>
       </c>
       <c r="E18">
-        <f>SUM(E3:E17)</f>
-        <v>75</v>
+        <f t="shared" ref="E18" si="0">SUM(E3:E17)</f>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
